--- a/oekologische.xlsx
+++ b/oekologische.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21261F97-FB6E-D649-886D-DC1DFFCC3628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB0A4AD-1FAE-9244-83A3-F527F17BAEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27060" yWindow="1540" windowWidth="25600" windowHeight="14480" activeTab="3" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
   </bookViews>
   <sheets>
     <sheet name="viktor-input-sheet" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="96">
   <si>
     <t>Parameters</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Neubau</t>
   </si>
   <si>
-    <t>Bestandsgebäude</t>
-  </si>
-  <si>
     <t>Sanierung</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>Speicher</t>
   </si>
   <si>
-    <t>anteil nutzbar thermisch erforderlich</t>
-  </si>
-  <si>
     <t>Nord</t>
   </si>
   <si>
@@ -349,6 +343,12 @@
   </si>
   <si>
     <t>CO2-Äquivalent</t>
+  </si>
+  <si>
+    <t>Bestand</t>
+  </si>
+  <si>
+    <t>ja</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,21 +771,24 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -793,145 +796,151 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
         <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -943,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF34484-6C90-604B-837C-4945A8213A32}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,33 +970,33 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="str">
         <f>'viktor-input-sheet'!D2</f>
-        <v>0</v>
+        <v>Neubau</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <f>'viktor-input-sheet'!D3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L3">
         <v>1.8</v>
@@ -995,14 +1004,14 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <f>'viktor-input-sheet'!D4</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L4">
         <v>1.1000000000000001</v>
@@ -1014,10 +1023,10 @@
       </c>
       <c r="B5">
         <f>'viktor-input-sheet'!D5</f>
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5">
         <v>1.1000000000000001</v>
@@ -1025,32 +1034,32 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="str">
+        <f>'viktor-input-sheet'!D6</f>
+        <v>Erdgas</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <f>'viktor-input-sheet'!D6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <f>'viktor-input-sheet'!D7</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L7">
         <v>560</v>
@@ -1058,14 +1067,14 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="str">
         <f>'viktor-input-sheet'!D8</f>
         <v>Süd</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L8">
         <v>240</v>
@@ -1073,14 +1082,14 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="str">
         <f>'viktor-input-sheet'!D9</f>
         <v>25°</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9">
         <v>310</v>
@@ -1088,25 +1097,25 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <f>'viktor-input-sheet'!D10</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="str">
         <f>'viktor-input-sheet'!D11</f>
-        <v>Süd</v>
+        <v>Süd-West</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="str">
         <f>'viktor-input-sheet'!D12</f>
@@ -1115,25 +1124,25 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <f>'viktor-input-sheet'!D13</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="str">
         <f>'viktor-input-sheet'!D14</f>
-        <v>Süd</v>
+        <v>Süd-West</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15">
         <f>'viktor-input-sheet'!D15</f>
@@ -1142,7 +1151,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" t="str">
         <f>'viktor-input-sheet'!D16</f>
@@ -1151,61 +1160,61 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17">
+        <v>68</v>
+      </c>
+      <c r="B17" t="str">
         <f>'viktor-input-sheet'!D17</f>
-        <v>0</v>
+        <v>ja</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" cm="1">
         <f t="array" ref="F19">VLOOKUP(B8&amp;B9,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B7+VLOOKUP(B14&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B13</f>
-        <v>5922</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" cm="1">
         <f t="array" ref="F20">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B15</f>
-        <v>0</v>
+        <v>3796</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>500</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B33*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B33*B15</f>
-        <v>0</v>
+        <v>13475.800000000001</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>1000</v>
@@ -1213,7 +1222,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1270,7 +1279,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>3000</v>
@@ -1278,7 +1287,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>0.3</v>
@@ -1287,7 +1296,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32">
         <f>1000*0.2</f>
@@ -1296,7 +1305,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>710</v>
@@ -1304,71 +1313,69 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36">
         <f>IF(B2="Bestandsgebäude",B20*B5,B19*B5)</f>
-        <v>45</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <f>IF(B3&gt;2,B3*B22,B4*B21)</f>
-        <v>500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <f>IF(B3&gt;2,B3*B30,VLOOKUP(B4,A24:B29,2,0))</f>
-        <v>2350</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <f>SUM(B36:B38)</f>
-        <v>2895</v>
+        <v>29100</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40">
         <f>IF(B17="ja",0.6,0.3)*(F19+F20)</f>
-        <v>1776.6</v>
+        <v>3912</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <f>F19+F20-B40</f>
-        <v>4145.3999999999996</v>
+        <v>2608</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42">
-        <f>F21*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>70</v>
-      </c>
+        <f>IF(F21&lt;(B36+B37)*0.6,F21,(B36+B37)*0.6)</f>
+        <v>12600</v>
+      </c>
+      <c r="D42" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -1377,52 +1384,52 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45">
         <f>IF(B6="Erdgas",L4,L5)*(B36+B37)+B38*L3</f>
-        <v>4829.5</v>
+        <v>37680</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46">
         <f>(IF(B6="Erdgas",L8,L9)*(B36+B37)+B38*L7)/1000</f>
-        <v>1484.95</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <f>SUM(B48:B50)</f>
-        <v>3197.88</v>
+        <v>20901.600000000002</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48">
-        <f>IF(B38&lt;B40,B38*L3,B40*L3)</f>
-        <v>3197.88</v>
+        <f>B40*L3</f>
+        <v>7041.6</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B49">
         <f>IF(B6="Erdgas",IF((B36+B37)&lt;B42,(B36+B37)*L4,B42*L4),0)</f>
-        <v>0</v>
+        <v>13860.000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B50">
         <f>IF(B6="Heizöl",IF((B36+B37)&lt;B42,(B36+B37)*L5,B42*L5),0)</f>
@@ -1431,34 +1438,34 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51">
         <f>SUM(B52:B54)</f>
-        <v>994.89599999999996</v>
+        <v>5214.7199999999993</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52">
         <f>IF(B38&lt;B40,B38*L7/1000,B40*L7/1000)</f>
-        <v>994.89599999999996</v>
+        <v>2190.7199999999998</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B53">
         <f>IF(B6="Erdgas",IF((B36+B37)&lt;B42,(B36+B37)*L8/1000,B42*L8/1000),0)</f>
-        <v>0</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B54">
         <f>IF(B6="Heizöl",IF((B36+B37)&lt;B42,(B36+B37)*L9/1000,B42*L9/1000),0)</f>
@@ -1467,20 +1474,20 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B55">
         <f>IF(B45-B47&lt;0,0,B45-B47)</f>
-        <v>1631.62</v>
+        <v>16778.399999999998</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B56">
         <f>IF(B46-B52&lt;0,0,B46-B52)</f>
-        <v>490.05400000000009</v>
+        <v>7385.2800000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1500,7 +1507,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -1514,22 +1521,22 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8">
         <v>82.7</v>
@@ -1538,10 +1545,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="8">
         <v>82.7</v>
@@ -1550,10 +1557,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8">
         <v>64.8</v>
@@ -1562,10 +1569,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8">
         <v>64.8</v>
@@ -1574,10 +1581,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8">
         <v>56.3</v>
@@ -1586,10 +1593,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="8">
         <v>56.3</v>
@@ -1598,10 +1605,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="8">
         <v>48.1</v>
@@ -1610,10 +1617,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8">
         <v>48.1</v>
@@ -1622,10 +1629,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8">
         <v>41</v>
@@ -1634,10 +1641,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8">
         <v>41</v>
@@ -1646,10 +1653,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="8">
         <v>33.700000000000003</v>
@@ -1658,10 +1665,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8">
         <v>33.700000000000003</v>
@@ -1670,10 +1677,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8">
         <v>28.7</v>
@@ -1682,10 +1689,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="8">
         <v>28.7</v>
@@ -1694,10 +1701,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8">
         <v>83.9</v>
@@ -1706,10 +1713,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="8">
         <v>83.9</v>
@@ -1718,10 +1725,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="8">
         <v>70.400000000000006</v>
@@ -1730,10 +1737,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="8">
         <v>70.400000000000006</v>
@@ -1742,10 +1749,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="8">
         <v>63.5</v>
@@ -1754,10 +1761,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="8">
         <v>63.5</v>
@@ -1766,10 +1773,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="8">
         <v>57.3</v>
@@ -1778,10 +1785,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="8">
         <v>57.3</v>
@@ -1790,10 +1797,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="8">
         <v>52.1</v>
@@ -1802,10 +1809,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="8">
         <v>52.1</v>
@@ -1814,10 +1821,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="8">
         <v>45.5</v>
@@ -1826,10 +1833,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="8">
         <v>45.5</v>
@@ -1838,10 +1845,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="8">
         <v>37.6</v>
@@ -1850,10 +1857,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="8">
         <v>37.6</v>
@@ -1862,10 +1869,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="8">
         <v>86.4</v>
@@ -1874,10 +1881,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="8">
         <v>86.4</v>
@@ -1886,10 +1893,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="8">
         <v>83.3</v>
@@ -1898,10 +1905,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="8">
         <v>83.3</v>
@@ -1910,10 +1917,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="8">
         <v>80.7</v>
@@ -1922,10 +1929,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" s="8">
         <v>80.7</v>
@@ -1934,10 +1941,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="8">
         <v>77.5</v>
@@ -1946,10 +1953,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="8">
         <v>77.5</v>
@@ -1958,10 +1965,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="8">
         <v>73.599999999999994</v>
@@ -1970,10 +1977,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="8">
         <v>73.599999999999994</v>
@@ -1982,10 +1989,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="8">
         <v>66.599999999999994</v>
@@ -1994,10 +2001,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="8">
         <v>66.599999999999994</v>
@@ -2006,10 +2013,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="8">
         <v>55.3</v>
@@ -2018,10 +2025,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" s="8">
         <v>55.3</v>
@@ -2030,10 +2037,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="8">
         <v>89</v>
@@ -2042,10 +2049,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" s="8">
         <v>89</v>
@@ -2054,10 +2061,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="8">
         <v>94.6</v>
@@ -2066,10 +2073,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" s="8">
         <v>94.6</v>
@@ -2078,10 +2085,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" s="8">
         <v>94.9</v>
@@ -2090,10 +2097,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="8">
         <v>94.9</v>
@@ -2102,10 +2109,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="8">
         <v>93.6</v>
@@ -2114,10 +2121,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53" s="8">
         <v>93.6</v>
@@ -2126,10 +2133,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C54" s="8">
         <v>90.4</v>
@@ -2138,10 +2145,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55" s="8">
         <v>90.4</v>
@@ -2150,10 +2157,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="8">
         <v>82.8</v>
@@ -2162,10 +2169,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="8">
         <v>82.8</v>
@@ -2174,10 +2181,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C58" s="8">
         <v>68.099999999999994</v>
@@ -2186,10 +2193,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C59" s="8">
         <v>68.099999999999994</v>
@@ -2198,10 +2205,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="8">
         <v>90</v>
@@ -2210,10 +2217,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" s="8">
         <v>90</v>
@@ -2222,10 +2229,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C62" s="8">
         <v>98.7</v>
@@ -2234,10 +2241,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="8">
         <v>98.7</v>
@@ -2246,10 +2253,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C64" s="8">
         <v>100</v>
@@ -2258,10 +2265,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C65" s="8">
         <v>100</v>
@@ -2270,10 +2277,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C66" s="8">
         <v>99</v>
@@ -2282,10 +2289,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" s="8">
         <v>99</v>
@@ -2294,10 +2301,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="8">
         <v>96</v>
@@ -2306,10 +2313,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="8">
         <v>96</v>
@@ -2318,10 +2325,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C70" s="8">
         <v>87.6</v>
@@ -2330,10 +2337,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C71" s="8">
         <v>87.6</v>
@@ -2342,10 +2349,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="8">
         <v>70.599999999999994</v>
@@ -2354,10 +2361,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" s="8">
         <v>70.599999999999994</v>
@@ -2366,10 +2373,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="8">
         <v>89</v>
@@ -2378,10 +2385,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" s="8">
         <v>89</v>
@@ -2390,10 +2397,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" s="8">
         <v>94.6</v>
@@ -2402,10 +2409,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" s="8">
         <v>94.6</v>
@@ -2414,10 +2421,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78" s="8">
         <v>94.9</v>
@@ -2426,10 +2433,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C79" s="8">
         <v>94.9</v>
@@ -2438,10 +2445,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C80" s="8">
         <v>93.6</v>
@@ -2450,10 +2457,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C81" s="8">
         <v>93.6</v>
@@ -2462,10 +2469,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" s="8">
         <v>90.4</v>
@@ -2474,10 +2481,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C83" s="8">
         <v>90.4</v>
@@ -2486,10 +2493,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C84" s="8">
         <v>82.8</v>
@@ -2498,10 +2505,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C85" s="8">
         <v>82.8</v>
@@ -2510,10 +2517,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C86" s="8">
         <v>68.099999999999994</v>
@@ -2522,10 +2529,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C87" s="8">
         <v>68.099999999999994</v>
@@ -2534,10 +2541,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C88" s="8">
         <v>86.4</v>
@@ -2546,10 +2553,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C89" s="8">
         <v>86.4</v>
@@ -2558,10 +2565,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C90" s="8">
         <v>83.3</v>
@@ -2570,10 +2577,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" s="8">
         <v>83.3</v>
@@ -2582,10 +2589,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C92" s="8">
         <v>80.7</v>
@@ -2594,10 +2601,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93" s="8">
         <v>80.7</v>
@@ -2606,10 +2613,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C94" s="8">
         <v>77.5</v>
@@ -2618,10 +2625,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C95" s="8">
         <v>77.5</v>
@@ -2630,10 +2637,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C96" s="8">
         <v>73.599999999999994</v>
@@ -2642,10 +2649,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C97" s="8">
         <v>73.599999999999994</v>
@@ -2654,10 +2661,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C98" s="8">
         <v>66.599999999999994</v>
@@ -2666,10 +2673,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C99" s="8">
         <v>66.599999999999994</v>
@@ -2678,10 +2685,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C100" s="8">
         <v>55.3</v>
@@ -2690,10 +2697,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C101" s="8">
         <v>55.3</v>
@@ -2702,10 +2709,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C102" s="8">
         <v>83.9</v>
@@ -2714,10 +2721,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C103" s="8">
         <v>83.9</v>
@@ -2726,10 +2733,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C104" s="8">
         <v>70.400000000000006</v>
@@ -2738,10 +2745,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C105" s="8">
         <v>70.400000000000006</v>
@@ -2750,10 +2757,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C106" s="8">
         <v>63.5</v>
@@ -2762,10 +2769,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C107" s="8">
         <v>63.5</v>
@@ -2774,10 +2781,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C108" s="8">
         <v>57.3</v>
@@ -2786,10 +2793,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C109" s="8">
         <v>57.3</v>
@@ -2798,10 +2805,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C110" s="8">
         <v>52.1</v>
@@ -2810,10 +2817,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C111" s="8">
         <v>52.1</v>
@@ -2822,10 +2829,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C112" s="8">
         <v>45.5</v>
@@ -2834,10 +2841,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C113" s="8">
         <v>45.5</v>
@@ -2846,10 +2853,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C114" s="8">
         <v>37.6</v>
@@ -2858,10 +2865,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C115" s="8">
         <v>37.6</v>
@@ -2893,7 +2900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71210A1-286B-9C46-A549-1E7A5CFEB5D3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2918,70 +2925,70 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <f>'calculation-sheet'!B45</f>
-        <v>4829.5</v>
+        <v>37680</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <f>'calculation-sheet'!B46</f>
-        <v>1484.95</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <f>'calculation-sheet'!B47</f>
-        <v>3197.88</v>
+        <v>20901.600000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <f>'calculation-sheet'!B48</f>
-        <v>3197.88</v>
+        <v>7041.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <f>'calculation-sheet'!B49</f>
-        <v>0</v>
+        <v>13860.000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <f>'calculation-sheet'!B50</f>
@@ -2990,46 +2997,46 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8">
         <f>'calculation-sheet'!B51</f>
-        <v>994.89599999999996</v>
+        <v>5214.7199999999993</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9">
         <f>'calculation-sheet'!B52</f>
-        <v>994.89599999999996</v>
+        <v>2190.7199999999998</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <f>'calculation-sheet'!B53</f>
-        <v>0</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <f>'calculation-sheet'!B54</f>
@@ -3038,26 +3045,26 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <f>'calculation-sheet'!B55</f>
-        <v>1631.62</v>
+        <v>16778.399999999998</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <f>'calculation-sheet'!B56</f>
-        <v>490.05400000000009</v>
+        <v>7385.2800000000007</v>
       </c>
     </row>
   </sheetData>

--- a/oekologische.xlsx
+++ b/oekologische.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB0A4AD-1FAE-9244-83A3-F527F17BAEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFDF51-037A-AC4A-B185-3C23EF2D3E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
   </bookViews>
   <sheets>
     <sheet name="viktor-input-sheet" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="100">
   <si>
     <t>Parameters</t>
   </si>
@@ -349,6 +349,18 @@
   </si>
   <si>
     <t>ja</t>
+  </si>
+  <si>
+    <t>JEB_Wärme</t>
+  </si>
+  <si>
+    <t>JEB_Strom</t>
+  </si>
+  <si>
+    <t>W+TWW</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -742,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30113F01-ECE6-B041-A380-4F6A0E1B36D3}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,6 +955,16 @@
         <v>68</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -950,10 +972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF34484-6C90-604B-837C-4945A8213A32}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,327 +1189,359 @@
         <v>ja</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18">
+        <f>'viktor-input-sheet'!D18</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
+      <c r="A19" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="B19">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" cm="1">
-        <f t="array" ref="F19">VLOOKUP(B8&amp;B9,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B7+VLOOKUP(B14&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B13</f>
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" cm="1">
-        <f t="array" ref="F20">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B32*B15</f>
-        <v>3796</v>
+        <f>'viktor-input-sheet'!D19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F21" cm="1">
-        <f t="array" ref="F21">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B33*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B33*B15</f>
-        <v>13475.800000000001</v>
+        <f t="array" ref="F21">VLOOKUP(B8&amp;B9,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B7+VLOOKUP(B14&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B13</f>
+        <v>2724</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>1000</v>
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" cm="1">
+        <f t="array" ref="F22">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B15</f>
+        <v>3796</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>500</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" cm="1">
+        <f t="array" ref="F23">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B35*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B35*B15</f>
+        <v>13475.800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>4040</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>3</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <f>1650*3</f>
         <v>4950</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <f>1500*4</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>5</v>
       </c>
-      <c r="B28">
+      <c r="B30">
         <f>1400*5</f>
         <v>7000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>6</v>
       </c>
-      <c r="B29">
+      <c r="B31">
         <f>1350*6</f>
         <v>8100</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D31" s="3"/>
-    </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>62</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <f>1000*0.2</f>
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>63</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>710</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <f>IF(B2="Bestandsgebäude",B20*B5,B19*B5)</f>
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <f>IF(B3&gt;2,B3*B22,B4*B21)</f>
-        <v>3000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <f>IF(B3&gt;2,B3*B30,VLOOKUP(B4,A24:B29,2,0))</f>
-        <v>8100</v>
+        <f>IF(B2="Bestandsgebäude",B22*B5,B21*B5)</f>
+        <v>22000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38">
+        <f>IF(B18=0,B38+B39,B18)</f>
+        <v>25000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <f>SUM(B36:B38)</f>
-        <v>29100</v>
+        <f>IF(B3&gt;2,B3*B24,B4*B23)</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <f>IF(B17="ja",0.6,0.3)*(F19+F20)</f>
-        <v>3912</v>
-      </c>
-      <c r="D40" s="3"/>
+        <f>IF(B3&gt;2,B3*B32,VLOOKUP(B4,A26:B31,2,0))</f>
+        <v>8100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40">
+        <f>IF(B19=0,B40,B19)</f>
+        <v>8100</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B41">
-        <f>F19+F20-B40</f>
-        <v>2608</v>
-      </c>
-      <c r="D41" s="3"/>
+        <f>D38+D40</f>
+        <v>33100</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <f>IF(B17="ja",0.6,0.3)*(F21+F22)</f>
+        <v>3912</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <f>F21+F22-B42</f>
+        <v>2608</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>21</v>
       </c>
-      <c r="B42">
-        <f>IF(F21&lt;(B36+B37)*0.6,F21,(B36+B37)*0.6)</f>
-        <v>12600</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B44">
+        <f>IF(F23&lt;(D38)*0.6,F23,(D38)*0.6)</f>
+        <v>13475.800000000001</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45">
-        <f>IF(B6="Erdgas",L4,L5)*(B36+B37)+B38*L3</f>
-        <v>37680</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46">
-        <f>(IF(B6="Erdgas",L8,L9)*(B36+B37)+B38*L7)/1000</f>
-        <v>9576</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B47">
-        <f>SUM(B48:B50)</f>
-        <v>20901.600000000002</v>
+        <f>IF(B6="Erdgas",L4,L5)*(D38)+D40*L3</f>
+        <v>42080</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48">
-        <f>B40*L3</f>
-        <v>7041.6</v>
+        <f>(IF(B6="Erdgas",L8,L9)*(D38)+D40*L7)/1000</f>
+        <v>10536</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B49">
-        <f>IF(B6="Erdgas",IF((B36+B37)&lt;B42,(B36+B37)*L4,B42*L4),0)</f>
-        <v>13860.000000000002</v>
+        <f>SUM(B50:B52)</f>
+        <v>21864.980000000003</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50">
-        <f>IF(B6="Heizöl",IF((B36+B37)&lt;B42,(B36+B37)*L5,B42*L5),0)</f>
-        <v>0</v>
+        <f>B42*L3</f>
+        <v>7041.6</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B51">
-        <f>SUM(B52:B54)</f>
-        <v>5214.7199999999993</v>
+        <f>IF(B6="Erdgas",IF((D38)&lt;B44,(D38)*L4,B44*L4),0)</f>
+        <v>14823.380000000003</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52">
-        <f>IF(B38&lt;B40,B38*L7/1000,B40*L7/1000)</f>
-        <v>2190.7199999999998</v>
+        <f>IF(B6="Heizöl",IF((D38)&lt;B44,(D38)*L5,B44*L5),0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B53">
-        <f>IF(B6="Erdgas",IF((B36+B37)&lt;B42,(B36+B37)*L8/1000,B42*L8/1000),0)</f>
-        <v>3024</v>
+        <f>SUM(B54:B56)</f>
+        <v>5424.9120000000003</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B54">
-        <f>IF(B6="Heizöl",IF((B36+B37)&lt;B42,(B36+B37)*L9/1000,B42*L9/1000),0)</f>
-        <v>0</v>
+        <f>IF(B40&lt;B42,D40*L7/1000,B42*L7/1000)</f>
+        <v>2190.7199999999998</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B55">
-        <f>IF(B45-B47&lt;0,0,B45-B47)</f>
-        <v>16778.399999999998</v>
+        <f>IF(B6="Erdgas",IF((D38)&lt;B44,(D38)*L8/1000,B44*L8/1000),0)</f>
+        <v>3234.1920000000005</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56">
+        <f>IF(B6="Heizöl",IF((D38)&lt;B44,(D38)*L9/1000,B44*L9/1000),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57">
+        <f>IF(B47-B49&lt;0,0,B47-B49)</f>
+        <v>20215.019999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>88</v>
       </c>
-      <c r="B56">
-        <f>IF(B46-B52&lt;0,0,B46-B52)</f>
-        <v>7385.2800000000007</v>
+      <c r="B58">
+        <f>IF(B48-B54&lt;0,0,B48-B54)</f>
+        <v>8345.2800000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71210A1-286B-9C46-A549-1E7A5CFEB5D3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2931,8 +2985,8 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <f>'calculation-sheet'!B45</f>
-        <v>37680</v>
+        <f>'calculation-sheet'!B47</f>
+        <v>42080</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2943,8 +2997,8 @@
         <v>89</v>
       </c>
       <c r="D3">
-        <f>'calculation-sheet'!B46</f>
-        <v>9576</v>
+        <f>'calculation-sheet'!B48</f>
+        <v>10536</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2955,8 +3009,8 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <f>'calculation-sheet'!B47</f>
-        <v>20901.600000000002</v>
+        <f>'calculation-sheet'!B49</f>
+        <v>21864.980000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2967,7 +3021,7 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <f>'calculation-sheet'!B48</f>
+        <f>'calculation-sheet'!B50</f>
         <v>7041.6</v>
       </c>
     </row>
@@ -2979,8 +3033,8 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <f>'calculation-sheet'!B49</f>
-        <v>13860.000000000002</v>
+        <f>'calculation-sheet'!B51</f>
+        <v>14823.380000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2991,7 +3045,7 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <f>'calculation-sheet'!B50</f>
+        <f>'calculation-sheet'!B52</f>
         <v>0</v>
       </c>
     </row>
@@ -3003,8 +3057,8 @@
         <v>89</v>
       </c>
       <c r="D8">
-        <f>'calculation-sheet'!B51</f>
-        <v>5214.7199999999993</v>
+        <f>'calculation-sheet'!B53</f>
+        <v>5424.9120000000003</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3015,7 +3069,7 @@
         <v>89</v>
       </c>
       <c r="D9">
-        <f>'calculation-sheet'!B52</f>
+        <f>'calculation-sheet'!B54</f>
         <v>2190.7199999999998</v>
       </c>
     </row>
@@ -3027,8 +3081,8 @@
         <v>89</v>
       </c>
       <c r="D10">
-        <f>'calculation-sheet'!B53</f>
-        <v>3024</v>
+        <f>'calculation-sheet'!B55</f>
+        <v>3234.1920000000005</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3039,7 +3093,7 @@
         <v>89</v>
       </c>
       <c r="D11">
-        <f>'calculation-sheet'!B54</f>
+        <f>'calculation-sheet'!B56</f>
         <v>0</v>
       </c>
     </row>
@@ -3051,8 +3105,8 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <f>'calculation-sheet'!B55</f>
-        <v>16778.399999999998</v>
+        <f>'calculation-sheet'!B57</f>
+        <v>20215.019999999997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3063,8 +3117,8 @@
         <v>89</v>
       </c>
       <c r="D13">
-        <f>'calculation-sheet'!B56</f>
-        <v>7385.2800000000007</v>
+        <f>'calculation-sheet'!B58</f>
+        <v>8345.2800000000007</v>
       </c>
     </row>
   </sheetData>

--- a/oekologische.xlsx
+++ b/oekologische.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanebecher/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFDF51-037A-AC4A-B185-3C23EF2D3E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC29AE2-34F2-4741-94DC-F674517BA084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{8A9FC0CA-1CC5-D44C-954E-9211FA078705}"/>
   </bookViews>
   <sheets>
     <sheet name="viktor-input-sheet" sheetId="1" r:id="rId1"/>
@@ -348,9 +348,6 @@
     <t>Bestand</t>
   </si>
   <si>
-    <t>ja</t>
-  </si>
-  <si>
     <t>JEB_Wärme</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>nein</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -811,7 +811,7 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -819,7 +819,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -866,7 +866,7 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
@@ -902,7 +902,7 @@
         <v>22</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>55</v>
@@ -927,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>59</v>
@@ -938,7 +938,7 @@
         <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
         <v>61</v>
@@ -949,7 +949,7 @@
         <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
         <v>68</v>
@@ -957,12 +957,12 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF34484-6C90-604B-837C-4945A8213A32}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -994,7 +994,7 @@
       </c>
       <c r="B2" t="str">
         <f>'viktor-input-sheet'!D2</f>
-        <v>Neubau</v>
+        <v>Sanierung</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B3">
         <f>'viktor-input-sheet'!D3</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
         <v>91</v>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B5">
         <f>'viktor-input-sheet'!D5</f>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B6" t="str">
         <f>'viktor-input-sheet'!D6</f>
-        <v>Erdgas</v>
+        <v>Heizöl</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B10">
         <f>'viktor-input-sheet'!D10</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B13">
         <f>'viktor-input-sheet'!D13</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B15">
         <f>'viktor-input-sheet'!D15</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B16" t="str">
         <f>'viktor-input-sheet'!D16</f>
-        <v>Süd</v>
+        <v>Nord</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B17" t="str">
         <f>'viktor-input-sheet'!D17</f>
-        <v>ja</v>
+        <v>nein</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <f>'viktor-input-sheet'!D18</f>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19">
         <f>'viktor-input-sheet'!D19</f>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="F21" cm="1">
         <f t="array" ref="F21">VLOOKUP(B8&amp;B9,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B7+VLOOKUP(B14&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B13</f>
-        <v>2724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="F22" cm="1">
         <f t="array" ref="F22">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B34*B15</f>
-        <v>3796</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F23" cm="1">
         <f t="array" ref="F23">VLOOKUP(B11&amp;B12,CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B35*B10+VLOOKUP(B16&amp;"90°",CHOOSE({1,2},'calculation-sheet2'!A:A&amp;'calculation-sheet2'!B:B,'calculation-sheet2'!C:C),2,0)/100*B35*B15</f>
-        <v>13475.800000000001</v>
+        <v>6113.0999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1356,15 +1356,15 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <f>IF(B2="Bestandsgebäude",B22*B5,B21*B5)</f>
-        <v>22000</v>
+        <f>IF(B2="Bestand",B22*B5,B21*B5)</f>
+        <v>27500</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38">
         <f>IF(B18=0,B38+B39,B18)</f>
-        <v>25000</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B39">
         <f>IF(B3&gt;2,B3*B24,B4*B23)</f>
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="B40">
         <f>IF(B3&gt;2,B3*B32,VLOOKUP(B4,A26:B31,2,0))</f>
-        <v>8100</v>
+        <v>15000</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <f>IF(B19=0,B40,B19)</f>
-        <v>8100</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B41">
         <f>D38+D40</f>
-        <v>33100</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B42">
         <f>IF(B17="ja",0.6,0.3)*(F21+F22)</f>
-        <v>3912</v>
+        <v>516.6</v>
       </c>
       <c r="D42" s="3"/>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="B43">
         <f>F21+F22-B42</f>
-        <v>2608</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B44">
         <f>IF(F23&lt;(D38)*0.6,F23,(D38)*0.6)</f>
-        <v>13475.800000000001</v>
+        <v>6113.0999999999995</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="B47">
         <f>IF(B6="Erdgas",L4,L5)*(D38)+D40*L3</f>
-        <v>42080</v>
+        <v>62750</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B48">
         <f>(IF(B6="Erdgas",L8,L9)*(D38)+D40*L7)/1000</f>
-        <v>10536</v>
+        <v>18475</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="B49">
         <f>SUM(B50:B52)</f>
-        <v>21864.980000000003</v>
+        <v>7654.29</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B50">
         <f>B42*L3</f>
-        <v>7041.6</v>
+        <v>929.88000000000011</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B51">
         <f>IF(B6="Erdgas",IF((D38)&lt;B44,(D38)*L4,B44*L4),0)</f>
-        <v>14823.380000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B52">
         <f>IF(B6="Heizöl",IF((D38)&lt;B44,(D38)*L5,B44*L5),0)</f>
-        <v>0</v>
+        <v>6724.41</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B53">
         <f>SUM(B54:B56)</f>
-        <v>5424.9120000000003</v>
+        <v>2184.3569999999995</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1504,8 +1504,8 @@
         <v>82</v>
       </c>
       <c r="B54">
-        <f>IF(B40&lt;B42,D40*L7/1000,B42*L7/1000)</f>
-        <v>2190.7199999999998</v>
+        <f>IF(D40&lt;B42,D40*L7/1000,B42*L7/1000)</f>
+        <v>289.29599999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B55">
         <f>IF(B6="Erdgas",IF((D38)&lt;B44,(D38)*L8/1000,B44*L8/1000),0)</f>
-        <v>3234.1920000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B56">
         <f>IF(B6="Heizöl",IF((D38)&lt;B44,(D38)*L9/1000,B44*L9/1000),0)</f>
-        <v>0</v>
+        <v>1895.0609999999997</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B57">
         <f>IF(B47-B49&lt;0,0,B47-B49)</f>
-        <v>20215.019999999997</v>
+        <v>55095.71</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1540,8 +1540,8 @@
         <v>88</v>
       </c>
       <c r="B58">
-        <f>IF(B48-B54&lt;0,0,B48-B54)</f>
-        <v>8345.2800000000007</v>
+        <f>IF(B48-B53&lt;0,0,B48-B53)</f>
+        <v>16290.643</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71210A1-286B-9C46-A549-1E7A5CFEB5D3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="D2">
         <f>'calculation-sheet'!B47</f>
-        <v>42080</v>
+        <v>62750</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="D3">
         <f>'calculation-sheet'!B48</f>
-        <v>10536</v>
+        <v>18475</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="D4">
         <f>'calculation-sheet'!B49</f>
-        <v>21864.980000000003</v>
+        <v>7654.29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="D5">
         <f>'calculation-sheet'!B50</f>
-        <v>7041.6</v>
+        <v>929.88000000000011</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="D6">
         <f>'calculation-sheet'!B51</f>
-        <v>14823.380000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="D7">
         <f>'calculation-sheet'!B52</f>
-        <v>0</v>
+        <v>6724.41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="D8">
         <f>'calculation-sheet'!B53</f>
-        <v>5424.9120000000003</v>
+        <v>2184.3569999999995</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="D9">
         <f>'calculation-sheet'!B54</f>
-        <v>2190.7199999999998</v>
+        <v>289.29599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="D10">
         <f>'calculation-sheet'!B55</f>
-        <v>3234.1920000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="D11">
         <f>'calculation-sheet'!B56</f>
-        <v>0</v>
+        <v>1895.0609999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="D12">
         <f>'calculation-sheet'!B57</f>
-        <v>20215.019999999997</v>
+        <v>55095.71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="D13">
         <f>'calculation-sheet'!B58</f>
-        <v>8345.2800000000007</v>
+        <v>16290.643</v>
       </c>
     </row>
   </sheetData>
